--- a/reports/PP_2_6_3_B2_P2_2025-08-26.xlsx
+++ b/reports/PP_2_6_3_B2_P2_2025-08-26.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,10 +486,81 @@
           <t>Pass</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>2025-08-26 12:12:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Playwright_POC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TEST-DummyTestCase1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[Errno 2] No such file or directory: 'data/AutomationChips.xlsx'</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:06:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Playwright_POC</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TEST-DummyTestCase1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-08-26 16:09:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Playwright_POC</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TEST-DummyTestCase1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-08-26 17:27:40</t>
         </is>
       </c>
     </row>
